--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33A4D64-3903-4410-B480-749DB7D9F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65845423-6080-479E-B5D1-9A4C67E443EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>Sıra</t>
   </si>
@@ -371,13 +371,16 @@
   </si>
   <si>
     <t>Serkan KESKİN</t>
+  </si>
+  <si>
+    <t>Eray NAKIŞÇI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +437,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -522,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +570,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +853,7 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1452,12 +1464,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5">
+    <row r="73" spans="1:4" s="16" customFormat="1">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="12" t="s">
         <v>72</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65845423-6080-479E-B5D1-9A4C67E443EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A4479-E969-4E8C-8A50-02BDF239727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
   <si>
     <t>Sıra</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Eray NAKIŞÇI</t>
+  </si>
+  <si>
+    <t>Java da Encapsulation</t>
+  </si>
+  <si>
+    <t>Hasan ÖZ</t>
   </si>
 </sst>
 </file>
@@ -850,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1662,7 +1668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:4">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:4">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:4">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:4">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:4">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:4">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:4">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -1774,13 +1780,35 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="5">
+    <row r="111" spans="1:4">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="4" t="s">
         <v>110</v>
       </c>
+    </row>
+    <row r="112" spans="1:4" s="16" customFormat="1">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" ht="13.8" customHeight="1">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A4479-E969-4E8C-8A50-02BDF239727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813FC92A-8D22-4CAB-A8B5-910C547F0CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>Sıra</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Hasan ÖZ</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -859,7 +862,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1803,8 +1806,12 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="114" spans="1:2" ht="13.8" customHeight="1">
       <c r="A114" s="5"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813FC92A-8D22-4CAB-A8B5-910C547F0CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B4614F-1D75-45DF-B7FB-23CBA3A78B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
   <si>
     <t>Sıra</t>
   </si>
@@ -382,7 +382,13 @@
     <t>Hasan ÖZ</t>
   </si>
   <si>
-    <t>XXX</t>
+    <t>Ömer SARI</t>
+  </si>
+  <si>
+    <t>C# oop ile gerçek hayattan proje simülasyonu</t>
+  </si>
+  <si>
+    <t>Ahmet Kerim ALTUN</t>
   </si>
 </sst>
 </file>
@@ -862,14 +868,14 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1141,7 +1147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1261,12 +1267,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:4" s="15" customFormat="1">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1805,15 +1817,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="3">
+    <row r="113" spans="1:4" s="15" customFormat="1">
+      <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="13.8" customHeight="1">
+      <c r="B113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="13.8" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
     </row>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B4614F-1D75-45DF-B7FB-23CBA3A78B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C8A97B-D11D-4477-98C5-BCCD7EAC4E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>Sıra</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Ahmet Kerim ALTUN</t>
+  </si>
+  <si>
+    <t>Kerim ÖZTÜRK</t>
   </si>
 </sst>
 </file>
@@ -867,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD113"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1461,12 +1464,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="3">
+    <row r="70" spans="1:4" s="15" customFormat="1">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="9" t="s">
         <v>69</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C8A97B-D11D-4477-98C5-BCCD7EAC4E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFDA0F2-A59E-4615-9CFE-A6EC6978CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>Sıra</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Kerim ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>Aleyna KOCAMAN</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -920,12 +923,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
+    <row r="5" spans="1:4" s="15" customFormat="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFDA0F2-A59E-4615-9CFE-A6EC6978CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF88497-26D4-4510-A4A1-18A214BAD9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF88497-26D4-4510-A4A1-18A214BAD9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A14837-BC1A-4700-BC72-3C888CE1B215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A14837-BC1A-4700-BC72-3C888CE1B215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF4974-5C6A-44D8-8D7C-5F7DA2A68F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t>Sıra</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Aleyna KOCAMAN</t>
+  </si>
+  <si>
+    <t>Neslihan ŞAHİN</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1495,12 +1498,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3">
+    <row r="72" spans="1:4" s="15" customFormat="1">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="9" t="s">
         <v>71</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="16" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF4974-5C6A-44D8-8D7C-5F7DA2A68F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E8C4B-B1B6-4B81-8FBC-AB8BFD38A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>Sıra</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>Neslihan ŞAHİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilal ÇINAR </t>
   </si>
 </sst>
 </file>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1509,7 +1512,7 @@
         <v>125</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="16" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E8C4B-B1B6-4B81-8FBC-AB8BFD38A092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB25518C-613E-4186-BB2E-D97E7612F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>Sıra</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hilal ÇINAR </t>
+  </si>
+  <si>
+    <t>Medine BURUNKAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -879,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -943,12 +949,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" s="15" customFormat="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1864,6 +1876,9 @@
     <row r="114" spans="1:4" ht="13.8" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB25518C-613E-4186-BB2E-D97E7612F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA27960-250C-45DD-B6BF-E9EF68BFB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>Sıra</t>
   </si>
@@ -406,7 +406,10 @@
     <t>Medine BURUNKAYA</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t>Furkan UÇAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -963,12 +966,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4" s="15" customFormat="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1877,7 +1886,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA27960-250C-45DD-B6BF-E9EF68BFB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D07968-A3DD-4092-BA8C-1EFD357E5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>Sıra</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -888,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1888,6 +1891,9 @@
       <c r="C114" t="s">
         <v>129</v>
       </c>
+      <c r="D114" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D07968-A3DD-4092-BA8C-1EFD357E5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD1963-5775-4B96-A030-90947D859B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +612,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +895,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -983,7 +986,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" s="17" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD1963-5775-4B96-A030-90947D859B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0CE405-C29C-42AE-81E4-1B50AD8893E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,7 +895,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -928,19 +928,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" s="15" customFormat="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" s="15" customFormat="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1066,11 +1066,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4" s="15" customFormat="1">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
     </row>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0CE405-C29C-42AE-81E4-1B50AD8893E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B7C50-21C4-42AC-866B-3059943B270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>Sıra</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Şenel Gül Güzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -894,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1520,12 +1526,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5">
+    <row r="71" spans="1:4" s="15" customFormat="1">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="12" t="s">
         <v>70</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="15" customFormat="1">
@@ -1610,6 +1622,9 @@
       </c>
       <c r="B80" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B7C50-21C4-42AC-866B-3059943B270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A273B31C-FDFD-464B-B9FD-3F9EE2398CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
   <si>
     <t>Sıra</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Mete YILMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -900,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1568,12 +1574,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3">
+    <row r="74" spans="1:4" s="15" customFormat="1">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="9" t="s">
         <v>73</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1627,7 +1639,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -1635,15 +1647,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:4">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:4">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:4">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -1683,7 +1698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:4">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:4">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:4">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -1731,7 +1746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:4">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -1739,7 +1754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:4">
       <c r="A96" s="3">
         <v>95</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A273B31C-FDFD-464B-B9FD-3F9EE2398CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539E66D-23F4-4B82-8D68-B68533C32101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
   <si>
     <t>Sıra</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -906,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1689,6 +1692,9 @@
       <c r="B86" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="D86" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539E66D-23F4-4B82-8D68-B68533C32101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE90938-72A4-425D-AE2F-216E1605BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>Sıra</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1676,6 +1679,9 @@
       <c r="B84" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA862A-82A6-4F41-B8D3-ECF8CE11F76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CD4B9-FF94-48B1-AE16-012517C24A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
   <si>
     <t>Sıra</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Dilara Sara BÜYÜKKESKİN</t>
+  </si>
+  <si>
+    <t>Sedat METLEK</t>
   </si>
 </sst>
 </file>
@@ -912,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1673,12 +1676,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="5">
+    <row r="83" spans="1:4" s="15" customFormat="1">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="12" t="s">
         <v>82</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1757,6 +1766,9 @@
       </c>
       <c r="B92" s="4" t="s">
         <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CD4B9-FF94-48B1-AE16-012517C24A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63CF2AB-85C2-428F-885F-41B41AF50CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>Sıra</t>
   </si>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1657,7 +1657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="15" customFormat="1">
+    <row r="83" spans="1:6" s="15" customFormat="1">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:6">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:6">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:6">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -1779,15 +1779,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:6">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:6">
       <c r="A96" s="3">
         <v>95</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63CF2AB-85C2-428F-885F-41B41AF50CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3ABA93-522F-40E5-B7FD-500C52FCE1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>Sıra</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Sedat METLEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
   </si>
 </sst>
 </file>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1964,6 +1967,11 @@
         <v>130</v>
       </c>
     </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3ABA93-522F-40E5-B7FD-500C52FCE1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F6426-AE8D-4BF9-B227-9B0A0342A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
     <t>Sedat METLEK</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F6426-AE8D-4BF9-B227-9B0A0342A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A25292-29D5-462B-9AD9-0BD0D700D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,10 @@
     <t>Dilara Sara BÜYÜKKESKİN</t>
   </si>
   <si>
-    <t>Sedat METLEK</t>
-  </si>
-  <si>
     <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Sedat Metlek</t>
   </si>
 </sst>
 </file>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1687,7 +1687,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>115</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A25292-29D5-462B-9AD9-0BD0D700D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FB38C-A24A-4854-B3B3-6D86B00D96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
   <si>
     <t>Sıra</t>
   </si>
@@ -919,7 +919,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1746,6 +1746,9 @@
       <c r="B89" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="E89" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FB38C-A24A-4854-B3B3-6D86B00D96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA2980-B1DA-4B27-8774-DFEF7644B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>Sıra</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>Sedat Metlek</t>
   </si>
 </sst>
 </file>
@@ -918,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1686,12 +1683,6 @@
       <c r="B83" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA2980-B1DA-4B27-8774-DFEF7644B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E83AC-604B-44C3-A623-7AAA46917FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
   <si>
     <t>Sıra</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Sedat METLEK</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1683,6 +1686,12 @@
       <c r="B83" s="12" t="s">
         <v>82</v>
       </c>
+      <c r="C83" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3">
@@ -1701,6 +1710,9 @@
       </c>
       <c r="B85" s="6" t="s">
         <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:6">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E83AC-604B-44C3-A623-7AAA46917FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF2D7CE-7564-4061-8838-15856DBF2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF2D7CE-7564-4061-8838-15856DBF2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD48095-83E4-405C-A1F8-389F27470EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +645,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,7 +932,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1679,17 +1692,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="15" customFormat="1">
-      <c r="A83" s="11">
+    <row r="83" spans="1:6" s="19" customFormat="1">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="19" t="s">
         <v>115</v>
       </c>
     </row>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD48095-83E4-405C-A1F8-389F27470EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E978EE-17D4-4BA6-926B-17B9D8250728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,13 +639,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1692,17 +1679,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="19" customFormat="1">
-      <c r="A83" s="17">
+    <row r="83" spans="1:6" s="15" customFormat="1">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="15" t="s">
         <v>115</v>
       </c>
     </row>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE90938-72A4-425D-AE2F-216E1605BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA862A-82A6-4F41-B8D3-ECF8CE11F76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
   <si>
     <t>Sıra</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Dilara Sara BÜYÜKKESKİN</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,9 +633,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1004,12 +1004,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="17" customFormat="1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" s="15" customFormat="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1184,6 +1190,9 @@
       </c>
       <c r="B29" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E978EE-17D4-4BA6-926B-17B9D8250728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91BF35-6C21-488E-9B30-FF75E4A11C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
   <si>
     <t>Sıra</t>
   </si>
@@ -440,18 +440,32 @@
   </si>
   <si>
     <t>Sedat METLEK</t>
+  </si>
+  <si>
+    <t>Zerbeli ZERBELİYEV</t>
+  </si>
+  <si>
+    <t>Hasan Ören</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,48 +611,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1726,12 +1743,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="5">
+    <row r="87" spans="1:6" s="15" customFormat="1">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="12" t="s">
         <v>86</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1895,12 +1918,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="5">
+    <row r="107" spans="1:4" s="15" customFormat="1">
+      <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="12" t="s">
         <v>106</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91BF35-6C21-488E-9B30-FF75E4A11C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64F3D0-F9C7-4D60-9DF2-2B8C1AF8FF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="145">
   <si>
     <t>Sıra</t>
   </si>
@@ -442,22 +442,39 @@
     <t>Sedat METLEK</t>
   </si>
   <si>
-    <t>Zerbeli ZERBELİYEV</t>
-  </si>
-  <si>
-    <t>Hasan Ören</t>
+    <t>Zarbali ZARBALİYEV</t>
+  </si>
+  <si>
+    <t>Bayram KARADENİZ</t>
+  </si>
+  <si>
+    <t>Hasan ÖREN</t>
+  </si>
+  <si>
+    <t>Dilara ULUTAŞ</t>
+  </si>
+  <si>
+    <t>Harun ŞİMŞEK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,48 +628,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -935,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1057,12 +1077,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4" s="15" customFormat="1">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1073,12 +1099,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" s="15" customFormat="1">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1750,8 +1782,8 @@
       <c r="B87" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>141</v>
+      <c r="C87" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>115</v>
@@ -1811,14 +1843,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="3">
+    <row r="94" spans="1:6" s="15" customFormat="1">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F94" t="s">
+      <c r="C94" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="15" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1925,7 +1963,7 @@
       <c r="B107" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D107" s="17" t="s">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E64F3D0-F9C7-4D60-9DF2-2B8C1AF8FF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59943EC4-6D47-4939-B131-4460E0EDC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
   <si>
     <t>Sıra</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Harun ŞİMŞEK</t>
+  </si>
+  <si>
+    <t>Cihan AKYIL</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -981,12 +984,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" s="15" customFormat="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59943EC4-6D47-4939-B131-4460E0EDC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6EDCC2-3A71-4169-B78B-B1C81987D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="147">
   <si>
     <t>Sıra</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Cihan AKYIL</t>
+  </si>
+  <si>
+    <t>Musa İLHAN</t>
   </si>
 </sst>
 </file>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1699,12 +1702,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5">
+    <row r="79" spans="1:4" s="15" customFormat="1">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="12" t="s">
         <v>78</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6EDCC2-3A71-4169-B78B-B1C81987D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DC5EC-88A3-4548-9777-3DE8A55A389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="148">
   <si>
     <t>Sıra</t>
   </si>
@@ -461,18 +461,29 @@
   </si>
   <si>
     <t>Musa İLHAN</t>
+  </si>
+  <si>
+    <t>YouTube'a Yükleme Yapan Moderatör</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,48 +645,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -961,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -971,9 +985,10 @@
     <col min="2" max="2" width="51.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1001,11 @@
       <c r="D1" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="15" customFormat="1">
+      <c r="E1" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1001,7 +1019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1">
+    <row r="3" spans="1:5" s="15" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="15" customFormat="1">
+    <row r="4" spans="1:5" s="15" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="15" customFormat="1">
+    <row r="5" spans="1:5" s="15" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="15" customFormat="1">
+    <row r="6" spans="1:5" s="15" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1045,7 +1063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="15" customFormat="1">
+    <row r="7" spans="1:5" s="15" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="15" customFormat="1">
+    <row r="8" spans="1:5" s="15" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1073,7 +1091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1081,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="15" customFormat="1">
+    <row r="11" spans="1:5" s="15" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="15" customFormat="1">
+    <row r="13" spans="1:5" s="15" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1125,7 +1143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1149,7 +1167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="15" customFormat="1">
+    <row r="18" spans="1:5" s="15" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1189,7 +1207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1205,7 +1223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="10" customFormat="1">
+    <row r="24" spans="1:5" s="10" customFormat="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1218,8 +1236,11 @@
       <c r="D24" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1235,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1262,7 +1283,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1270,7 +1291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1278,7 +1299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1420,7 +1441,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="15" customFormat="1">
+    <row r="50" spans="1:5" s="15" customFormat="1">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1441,8 +1462,11 @@
       <c r="D50" s="14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1450,7 +1474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1458,7 +1482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1466,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1474,7 +1498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1482,7 +1506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1498,7 +1522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1506,7 +1530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1514,7 +1538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1522,7 +1546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -1530,7 +1554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1538,7 +1562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="3">
         <v>63</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DC5EC-88A3-4548-9777-3DE8A55A389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48351F-0B8B-46B5-95DA-BDA8337068C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="148">
   <si>
     <t>Sıra</t>
   </si>
@@ -976,7 +976,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1578,7 +1578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="15" customFormat="1">
+    <row r="69" spans="1:5" s="15" customFormat="1">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -1623,8 +1623,11 @@
       <c r="D69" s="14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="15" customFormat="1">
+      <c r="E69" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="15" customFormat="1">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="15" customFormat="1">
+    <row r="71" spans="1:5" s="15" customFormat="1">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="15" customFormat="1">
+    <row r="72" spans="1:5" s="15" customFormat="1">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="16" customFormat="1">
+    <row r="73" spans="1:5" s="16" customFormat="1">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="15" customFormat="1">
+    <row r="74" spans="1:5" s="15" customFormat="1">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="15" customFormat="1">
+    <row r="79" spans="1:5" s="15" customFormat="1">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="3">
         <v>79</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48351F-0B8B-46B5-95DA-BDA8337068C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B7124-76BC-41BE-BCA6-83F9236EBFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="153">
   <si>
     <t>Sıra</t>
   </si>
@@ -464,6 +464,21 @@
   </si>
   <si>
     <t>YouTube'a Yükleme Yapan Moderatör</t>
+  </si>
+  <si>
+    <t>Engincan GÜLEK</t>
+  </si>
+  <si>
+    <t>Mahmut Sami SEYHAN</t>
+  </si>
+  <si>
+    <t>Onursal TOPARLAK</t>
+  </si>
+  <si>
+    <t>Caner KARACA</t>
+  </si>
+  <si>
+    <t>Fatmanur ŞAHİN</t>
   </si>
 </sst>
 </file>
@@ -975,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1191,12 +1206,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
+    <row r="20" spans="1:5" s="15" customFormat="1">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1602,12 +1623,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3">
+    <row r="68" spans="1:5" s="15" customFormat="1">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="9" t="s">
         <v>68</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="15" customFormat="1">
@@ -1705,20 +1732,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="3">
+    <row r="76" spans="1:5" s="15" customFormat="1">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="5">
+      <c r="C76" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="15" customFormat="1">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="12" t="s">
         <v>76</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1929,12 +1968,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="3">
+    <row r="98" spans="1:4" s="15" customFormat="1">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="9" t="s">
         <v>97</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B7124-76BC-41BE-BCA6-83F9236EBFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB8E22-3809-4F90-8B91-CC4145F2449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="155">
   <si>
     <t>Sıra</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Fatmanur ŞAHİN</t>
+  </si>
+  <si>
+    <t>Hayyam Nazım YALÇIN</t>
+  </si>
+  <si>
+    <t>Selman ATEŞ</t>
   </si>
 </sst>
 </file>
@@ -990,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1114,12 +1120,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" s="15" customFormat="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="15" customFormat="1">
@@ -1400,12 +1412,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
+    <row r="42" spans="1:4" s="15" customFormat="1">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB8E22-3809-4F90-8B91-CC4145F2449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EFCC0-26F6-4E51-96B7-DE78A35687D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
   <si>
     <t>Sıra</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Selman ATEŞ</t>
+  </si>
+  <si>
+    <t>Halit ARZUPINAR</t>
   </si>
 </sst>
 </file>
@@ -996,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2094,12 +2097,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="3">
+    <row r="110" spans="1:4" s="15" customFormat="1">
+      <c r="A110" s="11">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="9" t="s">
         <v>109</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EFCC0-26F6-4E51-96B7-DE78A35687D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C5F9E-422D-4BD6-A3B4-304B5EF3AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C5F9E-422D-4BD6-A3B4-304B5EF3AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FDA1B0-94B6-486A-A7A1-1B00FC53C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>Sıra</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Halit ARZUPINAR</t>
+  </si>
+  <si>
+    <t>Mehmet TONĞUT</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1003,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2035,12 +2038,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="5">
+    <row r="103" spans="1:4" s="15" customFormat="1">
+      <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="12" t="s">
         <v>102</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FDA1B0-94B6-486A-A7A1-1B00FC53C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5643596-37AC-4D28-8CAF-B90BB39E24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
   <si>
     <t>Sıra</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Mehmet TONĞUT</t>
+  </si>
+  <si>
+    <t>Bahri DOĞRU</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1378,12 +1381,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5">
+    <row r="37" spans="1:4" s="15" customFormat="1">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>37</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5643596-37AC-4D28-8CAF-B90BB39E24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F2BD4-98E8-42C1-8EC3-9E5BCD594E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>Sıra</t>
   </si>
@@ -494,18 +494,29 @@
   </si>
   <si>
     <t>Bahri DOĞRU</t>
+  </si>
+  <si>
+    <t>Ahmet İhsan AKŞEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,48 +686,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1005,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1195,12 +1209,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" s="15" customFormat="1">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F2BD4-98E8-42C1-8EC3-9E5BCD594E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E5D03-CC8C-4845-8130-FA92A21F1D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
   <si>
     <t>Sıra</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Ahmet İhsan AKŞEN</t>
+  </si>
+  <si>
+    <t>Erhan BAŞ</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1239,12 +1242,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5">
+    <row r="19" spans="1:5" s="15" customFormat="1">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E5D03-CC8C-4845-8130-FA92A21F1D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB88FD-AD03-4A53-8A6E-485FE4580A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
   <si>
     <t>Sıra</t>
   </si>
@@ -500,6 +500,15 @@
   </si>
   <si>
     <t>Erhan BAŞ</t>
+  </si>
+  <si>
+    <t>Eda TORLAK</t>
+  </si>
+  <si>
+    <t>Hüseyin UYGUR</t>
+  </si>
+  <si>
+    <t>Hilal YILMAZ</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1478,12 +1487,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
+    <row r="44" spans="1:4" s="15" customFormat="1">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="9" t="s">
         <v>44</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1573,12 +1588,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3">
+    <row r="54" spans="1:5" s="15" customFormat="1">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="9" t="s">
         <v>54</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1943,14 +1964,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="5">
+    <row r="89" spans="1:6" s="15" customFormat="1">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C89" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>135</v>
       </c>
     </row>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB88FD-AD03-4A53-8A6E-485FE4580A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76CECD3-3981-440C-8B5D-31DB126E293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
   <si>
     <t>Sıra</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>Hilal YILMAZ</t>
+  </si>
+  <si>
+    <t>Ulaş ÖZAY</t>
+  </si>
+  <si>
+    <t>Enes YAŞAR</t>
+  </si>
+  <si>
+    <t>Enes BÜYÜKBAŞ</t>
+  </si>
+  <si>
+    <t>Mustafa YALVAÇ</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1147,12 +1159,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" s="15" customFormat="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="15" customFormat="1">
@@ -1457,12 +1475,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5">
+    <row r="41" spans="1:4" s="15" customFormat="1">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="12" t="s">
         <v>41</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="15" customFormat="1">
@@ -1509,12 +1533,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
+    <row r="46" spans="1:4" s="15" customFormat="1">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="9" t="s">
         <v>46</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2133,12 +2163,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="3">
+    <row r="106" spans="1:4" s="15" customFormat="1">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="9" t="s">
         <v>105</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76CECD3-3981-440C-8B5D-31DB126E293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B4374-50F3-4B6B-B1AA-6A7DD66B44C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
   <si>
     <t>Sıra</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Mustafa YALVAÇ</t>
+  </si>
+  <si>
+    <t>Uğurcan KUZU</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1346,12 +1349,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5" s="15" customFormat="1">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B4374-50F3-4B6B-B1AA-6A7DD66B44C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F4EDE-8857-4C4F-9923-D17C5FE62B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
   <si>
     <t>Sıra</t>
   </si>
@@ -524,6 +524,27 @@
   </si>
   <si>
     <t>Uğurcan KUZU</t>
+  </si>
+  <si>
+    <t>Emin CENGİZ</t>
+  </si>
+  <si>
+    <t>Caner GÖZTEPE</t>
+  </si>
+  <si>
+    <t>Yunus KADAĞAN</t>
+  </si>
+  <si>
+    <t>Mustafa Can AKDEMİR</t>
+  </si>
+  <si>
+    <t>Melik Samed ALMACI</t>
+  </si>
+  <si>
+    <t>Berat Can KATANALP</t>
+  </si>
+  <si>
+    <t>Egemen ŞAHİN</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1226,12 +1247,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" s="15" customFormat="1">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1300,12 +1327,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
+    <row r="21" spans="1:5" s="15" customFormat="1">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1316,12 +1349,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5">
+    <row r="23" spans="1:5" s="15" customFormat="1">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="12" t="s">
         <v>23</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="10" customFormat="1">
@@ -1341,12 +1380,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
+    <row r="25" spans="1:5" s="15" customFormat="1">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>25</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="15" customFormat="1">
@@ -1970,15 +2015,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3">
+    <row r="86" spans="1:6" s="15" customFormat="1">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D86" t="s">
-        <v>135</v>
+      <c r="C86" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="15" customFormat="1">
@@ -2020,12 +2068,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="3">
+    <row r="90" spans="1:6" s="15" customFormat="1">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="9" t="s">
         <v>89</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2200,12 +2254,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="3">
+    <row r="108" spans="1:4" s="15" customFormat="1">
+      <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="9" t="s">
         <v>107</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F4EDE-8857-4C4F-9923-D17C5FE62B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAFCC87-FD0A-4180-A68C-0BF7DD4230FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
   <si>
     <t>Sıra</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Egemen ŞAHİN</t>
+  </si>
+  <si>
+    <t>Mert KIYDAN</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:XFD108"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1623,12 +1626,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5">
+    <row r="49" spans="1:5" s="15" customFormat="1">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAFCC87-FD0A-4180-A68C-0BF7DD4230FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E30A51-1801-4841-A7E8-1A30CA308AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="180">
   <si>
     <t>Sıra</t>
   </si>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t>Mert KIYDAN</t>
+  </si>
+  <si>
+    <t>Erkut UYSAL</t>
+  </si>
+  <si>
+    <t>Halit PARLAK</t>
+  </si>
+  <si>
+    <t>Burak BASKIN</t>
+  </si>
+  <si>
+    <t>Umut Eray ALTAY</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1508,12 +1520,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
+    <row r="38" spans="1:4" s="15" customFormat="1">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2091,12 +2109,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="5">
+    <row r="91" spans="1:6" s="15" customFormat="1">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2110,12 +2134,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="5">
+    <row r="93" spans="1:6" s="15" customFormat="1">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="12" t="s">
         <v>92</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="15" customFormat="1">
@@ -2277,12 +2307,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="5">
+    <row r="109" spans="1:4" s="15" customFormat="1">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="12" t="s">
         <v>108</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E30A51-1801-4841-A7E8-1A30CA308AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9C3B7-4677-458B-9EF7-361309E9911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeyne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9C3B7-4677-458B-9EF7-361309E9911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="180">
   <si>
     <t>Sıra</t>
   </si>
@@ -549,16 +550,22 @@
     <t>Mert KIYDAN</t>
   </si>
   <si>
-    <t>Hanin Ninal</t>
-  </si>
-  <si>
-    <t>Zeynep İrem KESLER</t>
+    <t>Erkut UYSAL</t>
+  </si>
+  <si>
+    <t>Halit PARLAK</t>
+  </si>
+  <si>
+    <t>Burak BASKIN</t>
+  </si>
+  <si>
+    <t>Umut Eray ALTAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1072,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHO140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="BD46" sqref="BD46"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1467,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:899">
+    <row r="33" spans="1:4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:899">
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1483,916 +1490,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:899">
-      <c r="A35" s="11">
+    <row r="35" spans="1:4">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="15"/>
-      <c r="AM35" s="15"/>
-      <c r="AN35" s="15"/>
-      <c r="AO35" s="15"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="15"/>
-      <c r="AR35" s="15"/>
-      <c r="AS35" s="15"/>
-      <c r="AT35" s="15"/>
-      <c r="AU35" s="15"/>
-      <c r="AV35" s="15"/>
-      <c r="AW35" s="15"/>
-      <c r="AX35" s="15"/>
-      <c r="AY35" s="15"/>
-      <c r="AZ35" s="15"/>
-      <c r="BA35" s="15"/>
-      <c r="BB35" s="15"/>
-      <c r="BC35" s="15"/>
-      <c r="BD35" s="15"/>
-      <c r="BE35" s="15"/>
-      <c r="BF35" s="15"/>
-      <c r="BG35" s="15"/>
-      <c r="BH35" s="15"/>
-      <c r="BI35" s="15"/>
-      <c r="BJ35" s="15"/>
-      <c r="BK35" s="15"/>
-      <c r="BL35" s="15"/>
-      <c r="BM35" s="15"/>
-      <c r="BN35" s="15"/>
-      <c r="BO35" s="15"/>
-      <c r="BP35" s="15"/>
-      <c r="BQ35" s="15"/>
-      <c r="BR35" s="15"/>
-      <c r="BS35" s="15"/>
-      <c r="BT35" s="15"/>
-      <c r="BU35" s="15"/>
-      <c r="BV35" s="15"/>
-      <c r="BW35" s="15"/>
-      <c r="BX35" s="15"/>
-      <c r="BY35" s="15"/>
-      <c r="BZ35" s="15"/>
-      <c r="CA35" s="15"/>
-      <c r="CB35" s="15"/>
-      <c r="CC35" s="15"/>
-      <c r="CD35" s="15"/>
-      <c r="CE35" s="15"/>
-      <c r="CF35" s="15"/>
-      <c r="CG35" s="15"/>
-      <c r="CH35" s="15"/>
-      <c r="CI35" s="15"/>
-      <c r="CJ35" s="15"/>
-      <c r="CK35" s="15"/>
-      <c r="CL35" s="15"/>
-      <c r="CM35" s="15"/>
-      <c r="CN35" s="15"/>
-      <c r="CO35" s="15"/>
-      <c r="CP35" s="15"/>
-      <c r="CQ35" s="15"/>
-      <c r="CR35" s="15"/>
-      <c r="CS35" s="15"/>
-      <c r="CT35" s="15"/>
-      <c r="CU35" s="15"/>
-      <c r="CV35" s="15"/>
-      <c r="CW35" s="15"/>
-      <c r="CX35" s="15"/>
-      <c r="CY35" s="15"/>
-      <c r="CZ35" s="15"/>
-      <c r="DA35" s="15"/>
-      <c r="DB35" s="15"/>
-      <c r="DC35" s="15"/>
-      <c r="DD35" s="15"/>
-      <c r="DE35" s="15"/>
-      <c r="DF35" s="15"/>
-      <c r="DG35" s="15"/>
-      <c r="DH35" s="15"/>
-      <c r="DI35" s="15"/>
-      <c r="DJ35" s="15"/>
-      <c r="DK35" s="15"/>
-      <c r="DL35" s="15"/>
-      <c r="DM35" s="15"/>
-      <c r="DN35" s="15"/>
-      <c r="DO35" s="15"/>
-      <c r="DP35" s="15"/>
-      <c r="DQ35" s="15"/>
-      <c r="DR35" s="15"/>
-      <c r="DS35" s="15"/>
-      <c r="DT35" s="15"/>
-      <c r="DU35" s="15"/>
-      <c r="DV35" s="15"/>
-      <c r="DW35" s="15"/>
-      <c r="DX35" s="15"/>
-      <c r="DY35" s="15"/>
-      <c r="DZ35" s="15"/>
-      <c r="EA35" s="15"/>
-      <c r="EB35" s="15"/>
-      <c r="EC35" s="15"/>
-      <c r="ED35" s="15"/>
-      <c r="EE35" s="15"/>
-      <c r="EF35" s="15"/>
-      <c r="EG35" s="15"/>
-      <c r="EH35" s="15"/>
-      <c r="EI35" s="15"/>
-      <c r="EJ35" s="15"/>
-      <c r="EK35" s="15"/>
-      <c r="EL35" s="15"/>
-      <c r="EM35" s="15"/>
-      <c r="EN35" s="15"/>
-      <c r="EO35" s="15"/>
-      <c r="EP35" s="15"/>
-      <c r="EQ35" s="15"/>
-      <c r="ER35" s="15"/>
-      <c r="ES35" s="15"/>
-      <c r="ET35" s="15"/>
-      <c r="EU35" s="15"/>
-      <c r="EV35" s="15"/>
-      <c r="EW35" s="15"/>
-      <c r="EX35" s="15"/>
-      <c r="EY35" s="15"/>
-      <c r="EZ35" s="15"/>
-      <c r="FA35" s="15"/>
-      <c r="FB35" s="15"/>
-      <c r="FC35" s="15"/>
-      <c r="FD35" s="15"/>
-      <c r="FE35" s="15"/>
-      <c r="FF35" s="15"/>
-      <c r="FG35" s="15"/>
-      <c r="FH35" s="15"/>
-      <c r="FI35" s="15"/>
-      <c r="FJ35" s="15"/>
-      <c r="FK35" s="15"/>
-      <c r="FL35" s="15"/>
-      <c r="FM35" s="15"/>
-      <c r="FN35" s="15"/>
-      <c r="FO35" s="15"/>
-      <c r="FP35" s="15"/>
-      <c r="FQ35" s="15"/>
-      <c r="FR35" s="15"/>
-      <c r="FS35" s="15"/>
-      <c r="FT35" s="15"/>
-      <c r="FU35" s="15"/>
-      <c r="FV35" s="15"/>
-      <c r="FW35" s="15"/>
-      <c r="FX35" s="15"/>
-      <c r="FY35" s="15"/>
-      <c r="FZ35" s="15"/>
-      <c r="GA35" s="15"/>
-      <c r="GB35" s="15"/>
-      <c r="GC35" s="15"/>
-      <c r="GD35" s="15"/>
-      <c r="GE35" s="15"/>
-      <c r="GF35" s="15"/>
-      <c r="GG35" s="15"/>
-      <c r="GH35" s="15"/>
-      <c r="GI35" s="15"/>
-      <c r="GJ35" s="15"/>
-      <c r="GK35" s="15"/>
-      <c r="GL35" s="15"/>
-      <c r="GM35" s="15"/>
-      <c r="GN35" s="15"/>
-      <c r="GO35" s="15"/>
-      <c r="GP35" s="15"/>
-      <c r="GQ35" s="15"/>
-      <c r="GR35" s="15"/>
-      <c r="GS35" s="15"/>
-      <c r="GT35" s="15"/>
-      <c r="GU35" s="15"/>
-      <c r="GV35" s="15"/>
-      <c r="GW35" s="15"/>
-      <c r="GX35" s="15"/>
-      <c r="GY35" s="15"/>
-      <c r="GZ35" s="15"/>
-      <c r="HA35" s="15"/>
-      <c r="HB35" s="15"/>
-      <c r="HC35" s="15"/>
-      <c r="HD35" s="15"/>
-      <c r="HE35" s="15"/>
-      <c r="HF35" s="15"/>
-      <c r="HG35" s="15"/>
-      <c r="HH35" s="15"/>
-      <c r="HI35" s="15"/>
-      <c r="HJ35" s="15"/>
-      <c r="HK35" s="15"/>
-      <c r="HL35" s="15"/>
-      <c r="HM35" s="15"/>
-      <c r="HN35" s="15"/>
-      <c r="HO35" s="15"/>
-      <c r="HP35" s="15"/>
-      <c r="HQ35" s="15"/>
-      <c r="HR35" s="15"/>
-      <c r="HS35" s="15"/>
-      <c r="HT35" s="15"/>
-      <c r="HU35" s="15"/>
-      <c r="HV35" s="15"/>
-      <c r="HW35" s="15"/>
-      <c r="HX35" s="15"/>
-      <c r="HY35" s="15"/>
-      <c r="HZ35" s="15"/>
-      <c r="IA35" s="15"/>
-      <c r="IB35" s="15"/>
-      <c r="IC35" s="15"/>
-      <c r="ID35" s="15"/>
-      <c r="IE35" s="15"/>
-      <c r="IF35" s="15"/>
-      <c r="IG35" s="15"/>
-      <c r="IH35" s="15"/>
-      <c r="II35" s="15"/>
-      <c r="IJ35" s="15"/>
-      <c r="IK35" s="15"/>
-      <c r="IL35" s="15"/>
-      <c r="IM35" s="15"/>
-      <c r="IN35" s="15"/>
-      <c r="IO35" s="15"/>
-      <c r="IP35" s="15"/>
-      <c r="IQ35" s="15"/>
-      <c r="IR35" s="15"/>
-      <c r="IS35" s="15"/>
-      <c r="IT35" s="15"/>
-      <c r="IU35" s="15"/>
-      <c r="IV35" s="15"/>
-      <c r="IW35" s="15"/>
-      <c r="IX35" s="15"/>
-      <c r="IY35" s="15"/>
-      <c r="IZ35" s="15"/>
-      <c r="JA35" s="15"/>
-      <c r="JB35" s="15"/>
-      <c r="JC35" s="15"/>
-      <c r="JD35" s="15"/>
-      <c r="JE35" s="15"/>
-      <c r="JF35" s="15"/>
-      <c r="JG35" s="15"/>
-      <c r="JH35" s="15"/>
-      <c r="JI35" s="15"/>
-      <c r="JJ35" s="15"/>
-      <c r="JK35" s="15"/>
-      <c r="JL35" s="15"/>
-      <c r="JM35" s="15"/>
-      <c r="JN35" s="15"/>
-      <c r="JO35" s="15"/>
-      <c r="JP35" s="15"/>
-      <c r="JQ35" s="15"/>
-      <c r="JR35" s="15"/>
-      <c r="JS35" s="15"/>
-      <c r="JT35" s="15"/>
-      <c r="JU35" s="15"/>
-      <c r="JV35" s="15"/>
-      <c r="JW35" s="15"/>
-      <c r="JX35" s="15"/>
-      <c r="JY35" s="15"/>
-      <c r="JZ35" s="15"/>
-      <c r="KA35" s="15"/>
-      <c r="KB35" s="15"/>
-      <c r="KC35" s="15"/>
-      <c r="KD35" s="15"/>
-      <c r="KE35" s="15"/>
-      <c r="KF35" s="15"/>
-      <c r="KG35" s="15"/>
-      <c r="KH35" s="15"/>
-      <c r="KI35" s="15"/>
-      <c r="KJ35" s="15"/>
-      <c r="KK35" s="15"/>
-      <c r="KL35" s="15"/>
-      <c r="KM35" s="15"/>
-      <c r="KN35" s="15"/>
-      <c r="KO35" s="15"/>
-      <c r="KP35" s="15"/>
-      <c r="KQ35" s="15"/>
-      <c r="KR35" s="15"/>
-      <c r="KS35" s="15"/>
-      <c r="KT35" s="15"/>
-      <c r="KU35" s="15"/>
-      <c r="KV35" s="15"/>
-      <c r="KW35" s="15"/>
-      <c r="KX35" s="15"/>
-      <c r="KY35" s="15"/>
-      <c r="KZ35" s="15"/>
-      <c r="LA35" s="15"/>
-      <c r="LB35" s="15"/>
-      <c r="LC35" s="15"/>
-      <c r="LD35" s="15"/>
-      <c r="LE35" s="15"/>
-      <c r="LF35" s="15"/>
-      <c r="LG35" s="15"/>
-      <c r="LH35" s="15"/>
-      <c r="LI35" s="15"/>
-      <c r="LJ35" s="15"/>
-      <c r="LK35" s="15"/>
-      <c r="LL35" s="15"/>
-      <c r="LM35" s="15"/>
-      <c r="LN35" s="15"/>
-      <c r="LO35" s="15"/>
-      <c r="LP35" s="15"/>
-      <c r="LQ35" s="15"/>
-      <c r="LR35" s="15"/>
-      <c r="LS35" s="15"/>
-      <c r="LT35" s="15"/>
-      <c r="LU35" s="15"/>
-      <c r="LV35" s="15"/>
-      <c r="LW35" s="15"/>
-      <c r="LX35" s="15"/>
-      <c r="LY35" s="15"/>
-      <c r="LZ35" s="15"/>
-      <c r="MA35" s="15"/>
-      <c r="MB35" s="15"/>
-      <c r="MC35" s="15"/>
-      <c r="MD35" s="15"/>
-      <c r="ME35" s="15"/>
-      <c r="MF35" s="15"/>
-      <c r="MG35" s="15"/>
-      <c r="MH35" s="15"/>
-      <c r="MI35" s="15"/>
-      <c r="MJ35" s="15"/>
-      <c r="MK35" s="15"/>
-      <c r="ML35" s="15"/>
-      <c r="MM35" s="15"/>
-      <c r="MN35" s="15"/>
-      <c r="MO35" s="15"/>
-      <c r="MP35" s="15"/>
-      <c r="MQ35" s="15"/>
-      <c r="MR35" s="15"/>
-      <c r="MS35" s="15"/>
-      <c r="MT35" s="15"/>
-      <c r="MU35" s="15"/>
-      <c r="MV35" s="15"/>
-      <c r="MW35" s="15"/>
-      <c r="MX35" s="15"/>
-      <c r="MY35" s="15"/>
-      <c r="MZ35" s="15"/>
-      <c r="NA35" s="15"/>
-      <c r="NB35" s="15"/>
-      <c r="NC35" s="15"/>
-      <c r="ND35" s="15"/>
-      <c r="NE35" s="15"/>
-      <c r="NF35" s="15"/>
-      <c r="NG35" s="15"/>
-      <c r="NH35" s="15"/>
-      <c r="NI35" s="15"/>
-      <c r="NJ35" s="15"/>
-      <c r="NK35" s="15"/>
-      <c r="NL35" s="15"/>
-      <c r="NM35" s="15"/>
-      <c r="NN35" s="15"/>
-      <c r="NO35" s="15"/>
-      <c r="NP35" s="15"/>
-      <c r="NQ35" s="15"/>
-      <c r="NR35" s="15"/>
-      <c r="NS35" s="15"/>
-      <c r="NT35" s="15"/>
-      <c r="NU35" s="15"/>
-      <c r="NV35" s="15"/>
-      <c r="NW35" s="15"/>
-      <c r="NX35" s="15"/>
-      <c r="NY35" s="15"/>
-      <c r="NZ35" s="15"/>
-      <c r="OA35" s="15"/>
-      <c r="OB35" s="15"/>
-      <c r="OC35" s="15"/>
-      <c r="OD35" s="15"/>
-      <c r="OE35" s="15"/>
-      <c r="OF35" s="15"/>
-      <c r="OG35" s="15"/>
-      <c r="OH35" s="15"/>
-      <c r="OI35" s="15"/>
-      <c r="OJ35" s="15"/>
-      <c r="OK35" s="15"/>
-      <c r="OL35" s="15"/>
-      <c r="OM35" s="15"/>
-      <c r="ON35" s="15"/>
-      <c r="OO35" s="15"/>
-      <c r="OP35" s="15"/>
-      <c r="OQ35" s="15"/>
-      <c r="OR35" s="15"/>
-      <c r="OS35" s="15"/>
-      <c r="OT35" s="15"/>
-      <c r="OU35" s="15"/>
-      <c r="OV35" s="15"/>
-      <c r="OW35" s="15"/>
-      <c r="OX35" s="15"/>
-      <c r="OY35" s="15"/>
-      <c r="OZ35" s="15"/>
-      <c r="PA35" s="15"/>
-      <c r="PB35" s="15"/>
-      <c r="PC35" s="15"/>
-      <c r="PD35" s="15"/>
-      <c r="PE35" s="15"/>
-      <c r="PF35" s="15"/>
-      <c r="PG35" s="15"/>
-      <c r="PH35" s="15"/>
-      <c r="PI35" s="15"/>
-      <c r="PJ35" s="15"/>
-      <c r="PK35" s="15"/>
-      <c r="PL35" s="15"/>
-      <c r="PM35" s="15"/>
-      <c r="PN35" s="15"/>
-      <c r="PO35" s="15"/>
-      <c r="PP35" s="15"/>
-      <c r="PQ35" s="15"/>
-      <c r="PR35" s="15"/>
-      <c r="PS35" s="15"/>
-      <c r="PT35" s="15"/>
-      <c r="PU35" s="15"/>
-      <c r="PV35" s="15"/>
-      <c r="PW35" s="15"/>
-      <c r="PX35" s="15"/>
-      <c r="PY35" s="15"/>
-      <c r="PZ35" s="15"/>
-      <c r="QA35" s="15"/>
-      <c r="QB35" s="15"/>
-      <c r="QC35" s="15"/>
-      <c r="QD35" s="15"/>
-      <c r="QE35" s="15"/>
-      <c r="QF35" s="15"/>
-      <c r="QG35" s="15"/>
-      <c r="QH35" s="15"/>
-      <c r="QI35" s="15"/>
-      <c r="QJ35" s="15"/>
-      <c r="QK35" s="15"/>
-      <c r="QL35" s="15"/>
-      <c r="QM35" s="15"/>
-      <c r="QN35" s="15"/>
-      <c r="QO35" s="15"/>
-      <c r="QP35" s="15"/>
-      <c r="QQ35" s="15"/>
-      <c r="QR35" s="15"/>
-      <c r="QS35" s="15"/>
-      <c r="QT35" s="15"/>
-      <c r="QU35" s="15"/>
-      <c r="QV35" s="15"/>
-      <c r="QW35" s="15"/>
-      <c r="QX35" s="15"/>
-      <c r="QY35" s="15"/>
-      <c r="QZ35" s="15"/>
-      <c r="RA35" s="15"/>
-      <c r="RB35" s="15"/>
-      <c r="RC35" s="15"/>
-      <c r="RD35" s="15"/>
-      <c r="RE35" s="15"/>
-      <c r="RF35" s="15"/>
-      <c r="RG35" s="15"/>
-      <c r="RH35" s="15"/>
-      <c r="RI35" s="15"/>
-      <c r="RJ35" s="15"/>
-      <c r="RK35" s="15"/>
-      <c r="RL35" s="15"/>
-      <c r="RM35" s="15"/>
-      <c r="RN35" s="15"/>
-      <c r="RO35" s="15"/>
-      <c r="RP35" s="15"/>
-      <c r="RQ35" s="15"/>
-      <c r="RR35" s="15"/>
-      <c r="RS35" s="15"/>
-      <c r="RT35" s="15"/>
-      <c r="RU35" s="15"/>
-      <c r="RV35" s="15"/>
-      <c r="RW35" s="15"/>
-      <c r="RX35" s="15"/>
-      <c r="RY35" s="15"/>
-      <c r="RZ35" s="15"/>
-      <c r="SA35" s="15"/>
-      <c r="SB35" s="15"/>
-      <c r="SC35" s="15"/>
-      <c r="SD35" s="15"/>
-      <c r="SE35" s="15"/>
-      <c r="SF35" s="15"/>
-      <c r="SG35" s="15"/>
-      <c r="SH35" s="15"/>
-      <c r="SI35" s="15"/>
-      <c r="SJ35" s="15"/>
-      <c r="SK35" s="15"/>
-      <c r="SL35" s="15"/>
-      <c r="SM35" s="15"/>
-      <c r="SN35" s="15"/>
-      <c r="SO35" s="15"/>
-      <c r="SP35" s="15"/>
-      <c r="SQ35" s="15"/>
-      <c r="SR35" s="15"/>
-      <c r="SS35" s="15"/>
-      <c r="ST35" s="15"/>
-      <c r="SU35" s="15"/>
-      <c r="SV35" s="15"/>
-      <c r="SW35" s="15"/>
-      <c r="SX35" s="15"/>
-      <c r="SY35" s="15"/>
-      <c r="SZ35" s="15"/>
-      <c r="TA35" s="15"/>
-      <c r="TB35" s="15"/>
-      <c r="TC35" s="15"/>
-      <c r="TD35" s="15"/>
-      <c r="TE35" s="15"/>
-      <c r="TF35" s="15"/>
-      <c r="TG35" s="15"/>
-      <c r="TH35" s="15"/>
-      <c r="TI35" s="15"/>
-      <c r="TJ35" s="15"/>
-      <c r="TK35" s="15"/>
-      <c r="TL35" s="15"/>
-      <c r="TM35" s="15"/>
-      <c r="TN35" s="15"/>
-      <c r="TO35" s="15"/>
-      <c r="TP35" s="15"/>
-      <c r="TQ35" s="15"/>
-      <c r="TR35" s="15"/>
-      <c r="TS35" s="15"/>
-      <c r="TT35" s="15"/>
-      <c r="TU35" s="15"/>
-      <c r="TV35" s="15"/>
-      <c r="TW35" s="15"/>
-      <c r="TX35" s="15"/>
-      <c r="TY35" s="15"/>
-      <c r="TZ35" s="15"/>
-      <c r="UA35" s="15"/>
-      <c r="UB35" s="15"/>
-      <c r="UC35" s="15"/>
-      <c r="UD35" s="15"/>
-      <c r="UE35" s="15"/>
-      <c r="UF35" s="15"/>
-      <c r="UG35" s="15"/>
-      <c r="UH35" s="15"/>
-      <c r="UI35" s="15"/>
-      <c r="UJ35" s="15"/>
-      <c r="UK35" s="15"/>
-      <c r="UL35" s="15"/>
-      <c r="UM35" s="15"/>
-      <c r="UN35" s="15"/>
-      <c r="UO35" s="15"/>
-      <c r="UP35" s="15"/>
-      <c r="UQ35" s="15"/>
-      <c r="UR35" s="15"/>
-      <c r="US35" s="15"/>
-      <c r="UT35" s="15"/>
-      <c r="UU35" s="15"/>
-      <c r="UV35" s="15"/>
-      <c r="UW35" s="15"/>
-      <c r="UX35" s="15"/>
-      <c r="UY35" s="15"/>
-      <c r="UZ35" s="15"/>
-      <c r="VA35" s="15"/>
-      <c r="VB35" s="15"/>
-      <c r="VC35" s="15"/>
-      <c r="VD35" s="15"/>
-      <c r="VE35" s="15"/>
-      <c r="VF35" s="15"/>
-      <c r="VG35" s="15"/>
-      <c r="VH35" s="15"/>
-      <c r="VI35" s="15"/>
-      <c r="VJ35" s="15"/>
-      <c r="VK35" s="15"/>
-      <c r="VL35" s="15"/>
-      <c r="VM35" s="15"/>
-      <c r="VN35" s="15"/>
-      <c r="VO35" s="15"/>
-      <c r="VP35" s="15"/>
-      <c r="VQ35" s="15"/>
-      <c r="VR35" s="15"/>
-      <c r="VS35" s="15"/>
-      <c r="VT35" s="15"/>
-      <c r="VU35" s="15"/>
-      <c r="VV35" s="15"/>
-      <c r="VW35" s="15"/>
-      <c r="VX35" s="15"/>
-      <c r="VY35" s="15"/>
-      <c r="VZ35" s="15"/>
-      <c r="WA35" s="15"/>
-      <c r="WB35" s="15"/>
-      <c r="WC35" s="15"/>
-      <c r="WD35" s="15"/>
-      <c r="WE35" s="15"/>
-      <c r="WF35" s="15"/>
-      <c r="WG35" s="15"/>
-      <c r="WH35" s="15"/>
-      <c r="WI35" s="15"/>
-      <c r="WJ35" s="15"/>
-      <c r="WK35" s="15"/>
-      <c r="WL35" s="15"/>
-      <c r="WM35" s="15"/>
-      <c r="WN35" s="15"/>
-      <c r="WO35" s="15"/>
-      <c r="WP35" s="15"/>
-      <c r="WQ35" s="15"/>
-      <c r="WR35" s="15"/>
-      <c r="WS35" s="15"/>
-      <c r="WT35" s="15"/>
-      <c r="WU35" s="15"/>
-      <c r="WV35" s="15"/>
-      <c r="WW35" s="15"/>
-      <c r="WX35" s="15"/>
-      <c r="WY35" s="15"/>
-      <c r="WZ35" s="15"/>
-      <c r="XA35" s="15"/>
-      <c r="XB35" s="15"/>
-      <c r="XC35" s="15"/>
-      <c r="XD35" s="15"/>
-      <c r="XE35" s="15"/>
-      <c r="XF35" s="15"/>
-      <c r="XG35" s="15"/>
-      <c r="XH35" s="15"/>
-      <c r="XI35" s="15"/>
-      <c r="XJ35" s="15"/>
-      <c r="XK35" s="15"/>
-      <c r="XL35" s="15"/>
-      <c r="XM35" s="15"/>
-      <c r="XN35" s="15"/>
-      <c r="XO35" s="15"/>
-      <c r="XP35" s="15"/>
-      <c r="XQ35" s="15"/>
-      <c r="XR35" s="15"/>
-      <c r="XS35" s="15"/>
-      <c r="XT35" s="15"/>
-      <c r="XU35" s="15"/>
-      <c r="XV35" s="15"/>
-      <c r="XW35" s="15"/>
-      <c r="XX35" s="15"/>
-      <c r="XY35" s="15"/>
-      <c r="XZ35" s="15"/>
-      <c r="YA35" s="15"/>
-      <c r="YB35" s="15"/>
-      <c r="YC35" s="15"/>
-      <c r="YD35" s="15"/>
-      <c r="YE35" s="15"/>
-      <c r="YF35" s="15"/>
-      <c r="YG35" s="15"/>
-      <c r="YH35" s="15"/>
-      <c r="YI35" s="15"/>
-      <c r="YJ35" s="15"/>
-      <c r="YK35" s="15"/>
-      <c r="YL35" s="15"/>
-      <c r="YM35" s="15"/>
-      <c r="YN35" s="15"/>
-      <c r="YO35" s="15"/>
-      <c r="YP35" s="15"/>
-      <c r="YQ35" s="15"/>
-      <c r="YR35" s="15"/>
-      <c r="YS35" s="15"/>
-      <c r="YT35" s="15"/>
-      <c r="YU35" s="15"/>
-      <c r="YV35" s="15"/>
-      <c r="YW35" s="15"/>
-      <c r="YX35" s="15"/>
-      <c r="YY35" s="15"/>
-      <c r="YZ35" s="15"/>
-      <c r="ZA35" s="15"/>
-      <c r="ZB35" s="15"/>
-      <c r="ZC35" s="15"/>
-      <c r="ZD35" s="15"/>
-      <c r="ZE35" s="15"/>
-      <c r="ZF35" s="15"/>
-      <c r="ZG35" s="15"/>
-      <c r="ZH35" s="15"/>
-      <c r="ZI35" s="15"/>
-      <c r="ZJ35" s="15"/>
-      <c r="ZK35" s="15"/>
-      <c r="ZL35" s="15"/>
-      <c r="ZM35" s="15"/>
-      <c r="ZN35" s="15"/>
-      <c r="ZO35" s="15"/>
-      <c r="ZP35" s="15"/>
-      <c r="ZQ35" s="15"/>
-      <c r="ZR35" s="15"/>
-      <c r="ZS35" s="15"/>
-      <c r="ZT35" s="15"/>
-      <c r="ZU35" s="15"/>
-      <c r="ZV35" s="15"/>
-      <c r="ZW35" s="15"/>
-      <c r="ZX35" s="15"/>
-      <c r="ZY35" s="15"/>
-      <c r="ZZ35" s="15"/>
-      <c r="AAA35" s="15"/>
-      <c r="AAB35" s="15"/>
-      <c r="AAC35" s="15"/>
-      <c r="AAD35" s="15"/>
-      <c r="AAE35" s="15"/>
-      <c r="AAF35" s="15"/>
-      <c r="AAG35" s="15"/>
-      <c r="AAH35" s="15"/>
-      <c r="AAI35" s="15"/>
-      <c r="AAJ35" s="15"/>
-      <c r="AAK35" s="15"/>
-      <c r="AAL35" s="15"/>
-      <c r="AAM35" s="15"/>
-      <c r="AAN35" s="15"/>
-      <c r="AAO35" s="15"/>
-      <c r="AAP35" s="15"/>
-      <c r="AAQ35" s="15"/>
-      <c r="AAR35" s="15"/>
-      <c r="AAS35" s="15"/>
-      <c r="AAT35" s="15"/>
-      <c r="AAU35" s="15"/>
-      <c r="AAV35" s="15"/>
-      <c r="AAW35" s="15"/>
-      <c r="AAX35" s="15"/>
-      <c r="AAY35" s="15"/>
-      <c r="AAZ35" s="15"/>
-      <c r="ABA35" s="15"/>
-      <c r="ABB35" s="15"/>
-      <c r="ABC35" s="15"/>
-      <c r="ABD35" s="15"/>
-      <c r="ABE35" s="15"/>
-      <c r="ABF35" s="15"/>
-      <c r="ABG35" s="15"/>
-      <c r="ABH35" s="15"/>
-      <c r="ABI35" s="15"/>
-      <c r="ABJ35" s="15"/>
-      <c r="ABK35" s="15"/>
-      <c r="ABL35" s="15"/>
-      <c r="ABM35" s="15"/>
-      <c r="ABN35" s="15"/>
-      <c r="ABO35" s="15"/>
-      <c r="ABP35" s="15"/>
-      <c r="ABQ35" s="15"/>
-      <c r="ABR35" s="15"/>
-      <c r="ABS35" s="15"/>
-      <c r="ABT35" s="15"/>
-      <c r="ABU35" s="15"/>
-      <c r="ABV35" s="15"/>
-      <c r="ABW35" s="15"/>
-      <c r="ABX35" s="15"/>
-      <c r="ABY35" s="15"/>
-      <c r="ABZ35" s="15"/>
-      <c r="ACA35" s="15"/>
-      <c r="ACB35" s="15"/>
-      <c r="ACC35" s="15"/>
-      <c r="ACD35" s="15"/>
-      <c r="ACE35" s="15"/>
-      <c r="ACF35" s="15"/>
-      <c r="ACG35" s="15"/>
-      <c r="ACH35" s="15"/>
-      <c r="ACI35" s="15"/>
-      <c r="ACJ35" s="15"/>
-      <c r="ACK35" s="15"/>
-      <c r="ACL35" s="15"/>
-      <c r="ACM35" s="15"/>
-      <c r="ACN35" s="15"/>
-      <c r="ACO35" s="15"/>
-      <c r="ACP35" s="15"/>
-      <c r="ACQ35" s="15"/>
-      <c r="ACR35" s="15"/>
-      <c r="ACS35" s="15"/>
-      <c r="ACT35" s="15"/>
-      <c r="ACU35" s="15"/>
-      <c r="ACV35" s="15"/>
-      <c r="ACW35" s="15"/>
-      <c r="ACX35" s="15"/>
-      <c r="ACY35" s="15"/>
-      <c r="ACZ35" s="15"/>
-      <c r="ADA35" s="15"/>
-      <c r="ADB35" s="15"/>
-      <c r="ADC35" s="15"/>
-      <c r="ADD35" s="15"/>
-      <c r="ADE35" s="15"/>
-      <c r="ADF35" s="15"/>
-      <c r="ADG35" s="15"/>
-      <c r="ADH35" s="15"/>
-      <c r="ADI35" s="15"/>
-      <c r="ADJ35" s="15"/>
-      <c r="ADK35" s="15"/>
-      <c r="ADL35" s="15"/>
-      <c r="ADM35" s="15"/>
-      <c r="ADN35" s="15"/>
-      <c r="ADO35" s="15"/>
-      <c r="ADP35" s="15"/>
-      <c r="ADQ35" s="15"/>
-      <c r="ADR35" s="15"/>
-      <c r="ADS35" s="15"/>
-      <c r="ADT35" s="15"/>
-      <c r="ADU35" s="15"/>
-      <c r="ADV35" s="15"/>
-      <c r="ADW35" s="15"/>
-      <c r="ADX35" s="15"/>
-      <c r="ADY35" s="15"/>
-      <c r="ADZ35" s="15"/>
-      <c r="AEA35" s="15"/>
-      <c r="AEB35" s="15"/>
-      <c r="AEC35" s="15"/>
-      <c r="AED35" s="15"/>
-      <c r="AEE35" s="15"/>
-      <c r="AEF35" s="15"/>
-      <c r="AEG35" s="15"/>
-      <c r="AEH35" s="15"/>
-      <c r="AEI35" s="15"/>
-      <c r="AEJ35" s="15"/>
-      <c r="AEK35" s="15"/>
-      <c r="AEL35" s="15"/>
-      <c r="AEM35" s="15"/>
-      <c r="AEN35" s="15"/>
-      <c r="AEO35" s="15"/>
-      <c r="AEP35" s="15"/>
-      <c r="AEQ35" s="15"/>
-      <c r="AER35" s="15"/>
-      <c r="AES35" s="15"/>
-      <c r="AET35" s="15"/>
-      <c r="AEU35" s="15"/>
-      <c r="AEV35" s="15"/>
-      <c r="AEW35" s="15"/>
-      <c r="AEX35" s="15"/>
-      <c r="AEY35" s="15"/>
-      <c r="AEZ35" s="15"/>
-      <c r="AFA35" s="15"/>
-      <c r="AFB35" s="15"/>
-      <c r="AFC35" s="15"/>
-      <c r="AFD35" s="15"/>
-      <c r="AFE35" s="15"/>
-      <c r="AFF35" s="15"/>
-      <c r="AFG35" s="15"/>
-      <c r="AFH35" s="15"/>
-      <c r="AFI35" s="15"/>
-      <c r="AFJ35" s="15"/>
-      <c r="AFK35" s="15"/>
-      <c r="AFL35" s="15"/>
-      <c r="AFM35" s="15"/>
-      <c r="AFN35" s="15"/>
-      <c r="AFO35" s="15"/>
-      <c r="AFP35" s="15"/>
-      <c r="AFQ35" s="15"/>
-      <c r="AFR35" s="15"/>
-      <c r="AFS35" s="15"/>
-      <c r="AFT35" s="15"/>
-      <c r="AFU35" s="15"/>
-      <c r="AFV35" s="15"/>
-      <c r="AFW35" s="15"/>
-      <c r="AFX35" s="15"/>
-      <c r="AFY35" s="15"/>
-      <c r="AFZ35" s="15"/>
-      <c r="AGA35" s="15"/>
-      <c r="AGB35" s="15"/>
-      <c r="AGC35" s="15"/>
-      <c r="AGD35" s="15"/>
-      <c r="AGE35" s="15"/>
-      <c r="AGF35" s="15"/>
-      <c r="AGG35" s="15"/>
-      <c r="AGH35" s="15"/>
-      <c r="AGI35" s="15"/>
-      <c r="AGJ35" s="15"/>
-      <c r="AGK35" s="15"/>
-      <c r="AGL35" s="15"/>
-      <c r="AGM35" s="15"/>
-      <c r="AGN35" s="15"/>
-      <c r="AGO35" s="15"/>
-      <c r="AGP35" s="15"/>
-      <c r="AGQ35" s="15"/>
-      <c r="AGR35" s="15"/>
-      <c r="AGS35" s="15"/>
-      <c r="AGT35" s="15"/>
-      <c r="AGU35" s="15"/>
-      <c r="AGV35" s="15"/>
-      <c r="AGW35" s="15"/>
-      <c r="AGX35" s="15"/>
-      <c r="AGY35" s="15"/>
-      <c r="AGZ35" s="15"/>
-      <c r="AHA35" s="15"/>
-      <c r="AHB35" s="15"/>
-      <c r="AHC35" s="15"/>
-      <c r="AHD35" s="15"/>
-      <c r="AHE35" s="15"/>
-      <c r="AHF35" s="15"/>
-      <c r="AHG35" s="15"/>
-      <c r="AHH35" s="15"/>
-      <c r="AHI35" s="15"/>
-      <c r="AHJ35" s="15"/>
-      <c r="AHK35" s="15"/>
-      <c r="AHL35" s="15"/>
-      <c r="AHM35" s="15"/>
-      <c r="AHN35" s="15"/>
-      <c r="AHO35" s="15"/>
-    </row>
-    <row r="36" spans="1:899">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2400,7 +1506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:899" s="15" customFormat="1">
+    <row r="37" spans="1:4" s="15" customFormat="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -2414,15 +1520,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:899">
-      <c r="A38" s="3">
+    <row r="38" spans="1:4" s="15" customFormat="1">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:899">
+      <c r="C38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2430,7 +1542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:899">
+    <row r="40" spans="1:4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2438,7 +1550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:899" s="15" customFormat="1">
+    <row r="41" spans="1:4" s="15" customFormat="1">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -2452,7 +1564,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:899" s="15" customFormat="1">
+    <row r="42" spans="1:4" s="15" customFormat="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -2466,7 +1578,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:899">
+    <row r="43" spans="1:4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2474,7 +1586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:899" s="15" customFormat="1">
+    <row r="44" spans="1:4" s="15" customFormat="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -2488,7 +1600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:899">
+    <row r="45" spans="1:4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2496,7 +1608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:899" s="15" customFormat="1">
+    <row r="46" spans="1:4" s="15" customFormat="1">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -2510,7 +1622,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:899">
+    <row r="47" spans="1:4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2518,7 +1630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:899" s="15" customFormat="1">
+    <row r="48" spans="1:4" s="15" customFormat="1">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -2997,12 +2109,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="5">
+    <row r="91" spans="1:6" s="15" customFormat="1">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3016,12 +2134,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="5">
+    <row r="93" spans="1:6" s="15" customFormat="1">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="12" t="s">
         <v>92</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="15" customFormat="1">
@@ -3183,12 +2307,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="5">
+    <row r="109" spans="1:4" s="15" customFormat="1">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="12" t="s">
         <v>108</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9C3B7-4677-458B-9EF7-361309E9911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAE7DA-6C84-449F-A466-83D9C2AEA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="181">
   <si>
     <t>Sıra</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Umut Eray ALTAY</t>
+  </si>
+  <si>
+    <t>Sinan TÜRK</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2203,12 +2206,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="5">
+    <row r="99" spans="1:4" s="15" customFormat="1">
+      <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="12" t="s">
         <v>98</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAE7DA-6C84-449F-A466-83D9C2AEA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10627F55-F2EF-45FC-A91C-CC4993AADFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
   <si>
     <t>Sıra</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Sinan TÜRK</t>
+  </si>
+  <si>
+    <t>İrfan KUTBAY</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1243,12 +1246,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" s="15" customFormat="1">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10627F55-F2EF-45FC-A91C-CC4993AADFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EAA72C-E200-4CA6-A14A-EEC6443E7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="184">
   <si>
     <t>Sıra</t>
   </si>
@@ -430,9 +430,6 @@
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
     <t>Dilara Sara BÜYÜKKESKİN</t>
   </si>
   <si>
@@ -566,6 +563,15 @@
   </si>
   <si>
     <t>İrfan KUTBAY</t>
+  </si>
+  <si>
+    <t>Niyazi Emre ÇELİK</t>
+  </si>
+  <si>
+    <t>Tuğrulhan SOYSAL</t>
+  </si>
+  <si>
+    <t>Burak KAYA</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1115,7 +1121,7 @@
         <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1">
@@ -1126,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>115</v>
@@ -1198,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>115</v>
@@ -1212,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>115</v>
@@ -1226,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>115</v>
@@ -1240,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>115</v>
@@ -1254,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>115</v>
@@ -1268,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>115</v>
@@ -1282,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>115</v>
@@ -1304,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>115</v>
@@ -1334,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>115</v>
@@ -1348,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>115</v>
@@ -1362,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>115</v>
@@ -1384,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>115</v>
@@ -1415,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>115</v>
@@ -1429,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>115</v>
@@ -1526,7 +1532,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>115</v>
@@ -1540,7 +1546,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>115</v>
@@ -1570,7 +1576,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>115</v>
@@ -1584,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>115</v>
@@ -1606,7 +1612,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>115</v>
@@ -1628,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>115</v>
@@ -1664,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>115</v>
@@ -1719,7 +1725,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>115</v>
@@ -1781,12 +1787,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3">
+    <row r="62" spans="1:5" s="15" customFormat="1">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1837,7 +1849,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>115</v>
@@ -1946,7 +1958,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>115</v>
@@ -1960,7 +1972,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>115</v>
@@ -1982,7 +1994,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>115</v>
@@ -2026,21 +2038,24 @@
         <v>82</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3">
+    <row r="84" spans="1:6" s="15" customFormat="1">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
-        <v>136</v>
+      <c r="C84" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2062,7 +2077,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>115</v>
@@ -2076,7 +2091,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>115</v>
@@ -2098,7 +2113,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>115</v>
@@ -2115,7 +2130,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>115</v>
@@ -2129,7 +2144,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>115</v>
@@ -2154,7 +2169,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>115</v>
@@ -2168,7 +2183,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>115</v>
@@ -2185,12 +2200,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="3">
+    <row r="96" spans="1:6" s="15" customFormat="1">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2209,7 +2230,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>115</v>
@@ -2223,7 +2244,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>115</v>
@@ -2261,7 +2282,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>115</v>
@@ -2291,7 +2312,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>115</v>
@@ -2305,7 +2326,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>115</v>
@@ -2319,7 +2340,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>115</v>
@@ -2333,7 +2354,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>115</v>
@@ -2347,7 +2368,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>115</v>
@@ -2401,7 +2422,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EAA72C-E200-4CA6-A14A-EEC6443E7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F3BD2-D843-419E-8249-D0368795D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
   <si>
     <t>Sıra</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>Burak KAYA</t>
+  </si>
+  <si>
+    <t>Hüseyin Hakan ARSLAN</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1441,12 +1444,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
+    <row r="27" spans="1:5" s="15" customFormat="1">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="12" t="s">
         <v>27</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F3BD2-D843-419E-8249-D0368795D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74987A26-CDD9-4A7B-80BC-C72141EACB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +818,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2053,18 +2060,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="15" customFormat="1">
-      <c r="A84" s="11">
+    <row r="84" spans="1:6" s="23" customFormat="1">
+      <c r="A84" s="21">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2223,12 +2224,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="5">
+    <row r="97" spans="1:4" s="15" customFormat="1">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="12" t="s">
         <v>96</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74987A26-CDD9-4A7B-80BC-C72141EACB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB52373-2CD5-47D4-816F-19CA25EF481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="186">
   <si>
     <t>Sıra</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>Hüseyin Hakan ARSLAN</t>
+  </si>
+  <si>
+    <t>Adem DEMİRTOP</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1516,12 +1519,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" s="15" customFormat="1">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB52373-2CD5-47D4-816F-19CA25EF481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761CE19-72C2-404B-975F-C01B34050462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
   <si>
     <t>Sıra</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t>Dilara Sara BÜYÜKKESKİN</t>
@@ -1107,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1134,7 +1131,7 @@
         <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1">
@@ -1145,9 +1142,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1180,6 +1180,9 @@
       <c r="D5" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E5" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="15" customFormat="1">
       <c r="A6" s="11">
@@ -1194,6 +1197,9 @@
       <c r="D6" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E6" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="15" customFormat="1">
       <c r="A7" s="11">
@@ -1208,6 +1214,9 @@
       <c r="D7" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E7" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="15" customFormat="1">
       <c r="A8" s="11">
@@ -1217,9 +1226,12 @@
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1231,9 +1243,12 @@
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1245,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>115</v>
@@ -1259,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>115</v>
@@ -1273,9 +1288,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1287,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>115</v>
@@ -1301,9 +1319,12 @@
         <v>14</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1323,9 +1344,12 @@
         <v>16</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1353,9 +1377,12 @@
         <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1367,9 +1394,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1381,9 +1411,12 @@
         <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1403,9 +1436,12 @@
         <v>23</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1434,9 +1470,12 @@
         <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1448,9 +1487,12 @@
         <v>26</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1462,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>115</v>
@@ -1511,7 +1553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1519,7 +1561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1">
+    <row r="34" spans="1:5" s="15" customFormat="1">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1527,13 +1569,16 @@
         <v>34</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1541,7 +1586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1549,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1">
+    <row r="37" spans="1:5" s="15" customFormat="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1557,13 +1602,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1">
+    <row r="38" spans="1:5" s="15" customFormat="1">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1571,13 +1616,16 @@
         <v>38</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1585,7 +1633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1593,7 +1641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1">
+    <row r="41" spans="1:5" s="15" customFormat="1">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1601,13 +1649,16 @@
         <v>41</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="15" customFormat="1">
+      <c r="E41" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="15" customFormat="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1615,13 +1666,13 @@
         <v>42</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1629,7 +1680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="15" customFormat="1">
+    <row r="44" spans="1:5" s="15" customFormat="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1637,13 +1688,16 @@
         <v>44</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1651,7 +1705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="15" customFormat="1">
+    <row r="46" spans="1:5" s="15" customFormat="1">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1659,13 +1713,16 @@
         <v>46</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -1673,7 +1730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="15" customFormat="1">
+    <row r="48" spans="1:5" s="15" customFormat="1">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1684,6 +1741,9 @@
         <v>120</v>
       </c>
       <c r="D48" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1695,9 +1755,12 @@
         <v>49</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1750,9 +1813,12 @@
         <v>54</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1820,7 +1886,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>115</v>
@@ -1874,9 +1940,12 @@
         <v>68</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1910,6 +1979,9 @@
       <c r="D70" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E70" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="15" customFormat="1">
       <c r="A71" s="11">
@@ -1924,6 +1996,9 @@
       <c r="D71" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E71" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="72" spans="1:5" s="15" customFormat="1">
       <c r="A72" s="11">
@@ -1938,6 +2013,9 @@
       <c r="D72" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="E72" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="73" spans="1:5" s="16" customFormat="1">
       <c r="A73" s="11">
@@ -1966,6 +2044,9 @@
       <c r="D74" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E74" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5">
@@ -1983,7 +2064,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>115</v>
@@ -1997,9 +2078,12 @@
         <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2019,9 +2103,12 @@
         <v>78</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2063,9 +2150,12 @@
         <v>82</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2096,9 +2186,12 @@
         <v>85</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2110,9 +2203,12 @@
         <v>86</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2132,13 +2228,13 @@
         <v>88</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>115</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="15" customFormat="1">
@@ -2149,9 +2245,12 @@
         <v>89</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D90" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2163,9 +2262,12 @@
         <v>90</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D91" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2188,7 +2290,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>115</v>
@@ -2202,9 +2304,12 @@
         <v>93</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D94" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>115</v>
       </c>
       <c r="F94" s="15" t="s">
@@ -2227,13 +2332,16 @@
         <v>95</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="15" customFormat="1">
+      <c r="E96" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="15" customFormat="1">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -2241,13 +2349,13 @@
         <v>96</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="15" customFormat="1">
+    <row r="98" spans="1:5" s="15" customFormat="1">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -2255,13 +2363,16 @@
         <v>97</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="15" customFormat="1">
+      <c r="E98" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="15" customFormat="1">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -2269,13 +2380,16 @@
         <v>98</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2283,7 +2397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -2291,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2299,7 +2413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="15" customFormat="1">
+    <row r="103" spans="1:5" s="15" customFormat="1">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -2307,13 +2421,16 @@
         <v>102</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2321,7 +2438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -2329,7 +2446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="15" customFormat="1">
+    <row r="106" spans="1:5" s="15" customFormat="1">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -2337,13 +2454,16 @@
         <v>105</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" s="15" customFormat="1">
+      <c r="E106" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="15" customFormat="1">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -2351,13 +2471,16 @@
         <v>106</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" s="15" customFormat="1">
+      <c r="E107" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="15" customFormat="1">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -2365,13 +2488,13 @@
         <v>107</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="15" customFormat="1">
+    <row r="109" spans="1:5" s="15" customFormat="1">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -2379,13 +2502,13 @@
         <v>108</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="15" customFormat="1">
+    <row r="110" spans="1:5" s="15" customFormat="1">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -2393,13 +2516,13 @@
         <v>109</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -2407,7 +2530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="16" customFormat="1">
+    <row r="112" spans="1:5" s="16" customFormat="1">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -2420,8 +2543,11 @@
       <c r="D112" s="16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" s="15" customFormat="1">
+      <c r="E112" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="15" customFormat="1">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -2434,8 +2560,11 @@
       <c r="D113" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="13.8" customHeight="1">
+      <c r="E113" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="13.8" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" t="s">
@@ -2447,7 +2576,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761CE19-72C2-404B-975F-C01B34050462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A2025E-5718-4145-89FC-59E7ADE1D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="185">
   <si>
     <t>Sıra</t>
   </si>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1891,6 +1891,9 @@
       <c r="D62" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E62" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A2025E-5718-4145-89FC-59E7ADE1D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2CF7B-907E-424B-A875-D5C17EFC751C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="187">
   <si>
     <t>Sıra</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Javada Composition</t>
   </si>
   <si>
-    <t>Konu sahibi</t>
-  </si>
-  <si>
     <t>Uğur Özşahin</t>
   </si>
   <si>
@@ -575,18 +572,35 @@
   </si>
   <si>
     <t>Adem DEMİRTOP</t>
+  </si>
+  <si>
+    <t>Final - Konu sahibi</t>
+  </si>
+  <si>
+    <t>Büt  - Konu Sahibi</t>
+  </si>
+  <si>
+    <t>Melih Tunahan BAĞ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -764,48 +778,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -817,14 +834,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1115,9 +1132,11 @@
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,16 +1144,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="15" customFormat="1">
+        <v>144</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1142,16 +1167,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1159,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="15" customFormat="1">
+    <row r="4" spans="1:7" s="15" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1167,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="15" customFormat="1">
+    <row r="5" spans="1:7" s="15" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1175,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="15" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1192,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1209,16 +1234,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1226,16 +1251,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1243,16 +1268,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1260,13 +1285,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1274,13 +1299,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1288,16 +1313,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1305,13 +1330,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1319,16 +1344,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1336,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="15" customFormat="1">
+    <row r="16" spans="1:7" s="15" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1344,13 +1369,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1377,13 +1402,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="15" customFormat="1">
@@ -1394,13 +1419,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="15" customFormat="1">
@@ -1411,13 +1436,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1436,13 +1461,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="10" customFormat="1">
@@ -1453,13 +1478,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="15" customFormat="1">
@@ -1470,13 +1495,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="15" customFormat="1">
@@ -1487,13 +1512,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="15" customFormat="1">
@@ -1504,10 +1529,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1526,7 +1551,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1553,7 +1578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1561,7 +1586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="15" customFormat="1">
+    <row r="34" spans="1:7" s="15" customFormat="1">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1569,16 +1594,16 @@
         <v>34</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1586,7 +1611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1594,7 +1619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="15" customFormat="1">
+    <row r="37" spans="1:7" s="15" customFormat="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1602,13 +1627,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="15" customFormat="1">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1616,16 +1641,16 @@
         <v>38</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1633,7 +1658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1641,7 +1666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="15" customFormat="1">
+    <row r="41" spans="1:7" s="15" customFormat="1">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1649,16 +1674,16 @@
         <v>41</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="15" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="15" customFormat="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1666,13 +1691,13 @@
         <v>42</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1680,7 +1705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="15" customFormat="1">
+    <row r="44" spans="1:7" s="15" customFormat="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1688,16 +1713,16 @@
         <v>44</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1705,7 +1730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="15" customFormat="1">
+    <row r="46" spans="1:7" s="15" customFormat="1">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1713,24 +1738,30 @@
         <v>46</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="15" customFormat="1">
+      <c r="F47" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="15" customFormat="1">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1738,13 +1769,13 @@
         <v>48</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="15" customFormat="1">
@@ -1755,13 +1786,13 @@
         <v>49</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="15" customFormat="1">
@@ -1772,13 +1803,13 @@
         <v>50</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1813,13 +1844,13 @@
         <v>54</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1886,13 +1917,13 @@
         <v>62</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1943,13 +1974,13 @@
         <v>68</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="15" customFormat="1">
@@ -1957,16 +1988,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="15" customFormat="1">
@@ -1977,13 +2008,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="15" customFormat="1">
@@ -1994,13 +2025,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="15" customFormat="1">
@@ -2011,13 +2042,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="E72" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="16" customFormat="1">
@@ -2028,10 +2059,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="15" customFormat="1">
@@ -2042,13 +2073,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2067,10 +2098,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="15" customFormat="1">
@@ -2081,13 +2112,13 @@
         <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2106,13 +2137,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2123,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2142,7 +2173,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="15" customFormat="1">
@@ -2153,13 +2184,13 @@
         <v>82</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1">
@@ -2178,7 +2209,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="15" customFormat="1">
@@ -2189,13 +2220,13 @@
         <v>85</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="15" customFormat="1">
@@ -2206,13 +2237,13 @@
         <v>86</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2231,13 +2262,13 @@
         <v>88</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="15" customFormat="1">
@@ -2248,13 +2279,13 @@
         <v>89</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="15" customFormat="1">
@@ -2265,13 +2296,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2282,7 +2313,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="15" customFormat="1">
@@ -2293,10 +2324,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="15" customFormat="1">
@@ -2307,16 +2338,16 @@
         <v>93</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2335,13 +2366,13 @@
         <v>95</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="15" customFormat="1">
@@ -2352,10 +2383,10 @@
         <v>96</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="15" customFormat="1">
@@ -2366,13 +2397,13 @@
         <v>97</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="15" customFormat="1">
@@ -2383,13 +2414,13 @@
         <v>98</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2424,13 +2455,13 @@
         <v>102</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2457,13 +2488,13 @@
         <v>105</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="15" customFormat="1">
@@ -2474,13 +2505,13 @@
         <v>106</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="15" customFormat="1">
@@ -2491,10 +2522,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="15" customFormat="1">
@@ -2505,10 +2536,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="15" customFormat="1">
@@ -2519,10 +2550,10 @@
         <v>109</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2538,16 +2569,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="D112" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="15" customFormat="1">
@@ -2555,31 +2586,31 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="D113" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="13.8" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s">
         <v>129</v>
-      </c>
-      <c r="D114" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2CF7B-907E-424B-A875-D5C17EFC751C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E99CF7-CF48-490F-8A87-2F5E0FA8109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="187">
   <si>
     <t>Sıra</t>
   </si>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1942,7 +1942,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:7">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:7">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:7">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="15" customFormat="1">
+    <row r="68" spans="1:7" s="15" customFormat="1">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="15" customFormat="1">
+    <row r="69" spans="1:7" s="15" customFormat="1">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="15" customFormat="1">
+    <row r="70" spans="1:7" s="15" customFormat="1">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="15" customFormat="1">
+    <row r="71" spans="1:7" s="15" customFormat="1">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -2033,8 +2033,14 @@
       <c r="E71" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" s="15" customFormat="1">
+      <c r="F71" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="15" customFormat="1">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="16" customFormat="1">
+    <row r="73" spans="1:7" s="16" customFormat="1">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="15" customFormat="1">
+    <row r="74" spans="1:7" s="15" customFormat="1">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="15" customFormat="1">
+    <row r="76" spans="1:7" s="15" customFormat="1">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="15" customFormat="1">
+    <row r="77" spans="1:7" s="15" customFormat="1">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="15" customFormat="1">
+    <row r="79" spans="1:7" s="15" customFormat="1">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="3">
         <v>79</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E99CF7-CF48-490F-8A87-2F5E0FA8109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB56ED3-E69B-4385-8D9D-3F843DE21FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
   <si>
     <t>Sıra</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>Melih Tunahan BAĞ</t>
+  </si>
+  <si>
+    <t>Tekrar Aynı Kişi</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1649,6 +1652,9 @@
       <c r="E38" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F38" s="15" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5">
@@ -1747,17 +1753,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="5">
+    <row r="47" spans="1:7" s="16" customFormat="1">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2381,7 +2387,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="15" customFormat="1">
+    <row r="97" spans="1:7" s="15" customFormat="1">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="15" customFormat="1">
+    <row r="98" spans="1:7" s="15" customFormat="1">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="15" customFormat="1">
+    <row r="99" spans="1:7" s="15" customFormat="1">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -2428,8 +2434,14 @@
       <c r="E99" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:7">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="15" customFormat="1">
+    <row r="103" spans="1:7" s="15" customFormat="1">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="15" customFormat="1">
+    <row r="106" spans="1:7" s="15" customFormat="1">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -2503,7 +2515,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="15" customFormat="1">
+    <row r="107" spans="1:7" s="15" customFormat="1">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="15" customFormat="1">
+    <row r="108" spans="1:7" s="15" customFormat="1">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="15" customFormat="1">
+    <row r="109" spans="1:7" s="15" customFormat="1">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="15" customFormat="1">
+    <row r="110" spans="1:7" s="15" customFormat="1">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:7">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="16" customFormat="1">
+    <row r="112" spans="1:7" s="16" customFormat="1">
       <c r="A112" s="11">
         <v>111</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB56ED3-E69B-4385-8D9D-3F843DE21FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D73D8-2026-41E9-A317-7F96358DE272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
   <si>
     <t>Sıra</t>
   </si>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1655,6 +1655,9 @@
       <c r="F38" s="15" t="s">
         <v>147</v>
       </c>
+      <c r="G38" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D73D8-2026-41E9-A317-7F96358DE272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BA464-424F-40E0-84DD-D77AA502F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BA464-424F-40E0-84DD-D77AA502F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FE49F4-96B5-44DF-8FE5-F5229E70A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>Tekrar Aynı Kişi</t>
+  </si>
+  <si>
+    <t>Ömer sarı</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1128,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1614,12 +1617,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
+    <row r="36" spans="1:7" s="15" customFormat="1">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="15" customFormat="1">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FE49F4-96B5-44DF-8FE5-F5229E70A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8A7C5-C675-41BE-BF5E-2DCE9A4794CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2074,6 +2074,12 @@
       <c r="E72" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F72" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="73" spans="1:7" s="16" customFormat="1">
       <c r="A73" s="11">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8A7C5-C675-41BE-BF5E-2DCE9A4794CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18DB45-10CD-404C-8C5E-DAC71E76F520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18DB45-10CD-404C-8C5E-DAC71E76F520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A72E98-42E0-4C17-A8E6-258846624F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1248,6 +1248,12 @@
       <c r="E7" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F7" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="11">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A72E98-42E0-4C17-A8E6-258846624F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C5906-0BD6-41F6-90AD-A8E01FAFF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1390,7 +1390,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1">
+    <row r="18" spans="1:7" s="15" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1">
+    <row r="19" spans="1:7" s="15" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1">
+    <row r="20" spans="1:7" s="15" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1439,8 +1439,14 @@
       <c r="E20" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="15" customFormat="1">
+      <c r="F20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1">
+    <row r="23" spans="1:7" s="15" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="10" customFormat="1">
+    <row r="24" spans="1:7" s="10" customFormat="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="15" customFormat="1">
+    <row r="25" spans="1:7" s="15" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1">
+    <row r="26" spans="1:7" s="15" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1">
+    <row r="27" spans="1:7" s="15" customFormat="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1665,12 +1671,6 @@
         <v>114</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="15" t="s">
         <v>114</v>
       </c>
     </row>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C5906-0BD6-41F6-90AD-A8E01FAFF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FA3A4C-3652-4E1C-BD84-E950D5E7937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1552,6 +1552,12 @@
       <c r="D27" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F27" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FA3A4C-3652-4E1C-BD84-E950D5E7937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA7214-EB55-4517-A9CA-9C1B39970F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2199,7 +2199,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="15" customFormat="1">
+    <row r="83" spans="1:7" s="15" customFormat="1">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="23" customFormat="1">
+    <row r="84" spans="1:7" s="23" customFormat="1">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="15" customFormat="1">
+    <row r="86" spans="1:7" s="15" customFormat="1">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="15" customFormat="1">
+    <row r="87" spans="1:7" s="15" customFormat="1">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:7">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="15" customFormat="1">
+    <row r="89" spans="1:7" s="15" customFormat="1">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="15" customFormat="1">
+    <row r="90" spans="1:7" s="15" customFormat="1">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="15" customFormat="1">
+    <row r="91" spans="1:7" s="15" customFormat="1">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -2346,8 +2346,14 @@
       <c r="E91" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="15" customFormat="1">
+    <row r="93" spans="1:7" s="15" customFormat="1">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="15" customFormat="1">
+    <row r="94" spans="1:7" s="15" customFormat="1">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:7">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="15" customFormat="1">
+    <row r="96" spans="1:7" s="15" customFormat="1">
       <c r="A96" s="11">
         <v>95</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA7214-EB55-4517-A9CA-9C1B39970F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A3343-7B4A-40A9-92E8-9D72F4DC580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1808,7 +1808,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="15" customFormat="1">
+    <row r="49" spans="1:7" s="15" customFormat="1">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1824,8 +1824,14 @@
       <c r="E49" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" s="15" customFormat="1">
+      <c r="F49" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="15" customFormat="1">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:7">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="15" customFormat="1">
+    <row r="54" spans="1:7" s="15" customFormat="1">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:7">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:7">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:7">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="15" customFormat="1">
+    <row r="62" spans="1:7" s="15" customFormat="1">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7">
       <c r="A64" s="3">
         <v>63</v>
       </c>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A3343-7B4A-40A9-92E8-9D72F4DC580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AFF58F-5BBF-4579-885B-82FAAE961A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2052,6 +2052,12 @@
       <c r="E70" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F70" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="71" spans="1:7" s="15" customFormat="1">
       <c r="A71" s="11">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AFF58F-5BBF-4579-885B-82FAAE961A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711C7AC-1508-4ABA-9B7D-939A6ECA6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711C7AC-1508-4ABA-9B7D-939A6ECA6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F5B11F-A9C3-4234-85CA-50043850928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1462,6 +1462,12 @@
       <c r="E21" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F21" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F5B11F-A9C3-4234-85CA-50043850928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB2263-88D3-4A24-BCCC-5CFD09A6527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2599,6 +2599,12 @@
       <c r="D108" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F108" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="109" spans="1:7" s="15" customFormat="1">
       <c r="A109" s="11">

--- a/NYP_OrnekKonuListesi.xlsx
+++ b/NYP_OrnekKonuListesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\videoHazirlama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB2263-88D3-4A24-BCCC-5CFD09A6527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C929EA-9978-4C70-907B-C34478022DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
   <si>
     <t>Sıra</t>
   </si>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1364,6 +1364,12 @@
       <c r="E14" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="F14" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5">
